--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_7.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_24</t>
+          <t>model_1_7_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9941027683609408</v>
+        <v>0.9998745071641204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9932636770365715</v>
+        <v>0.999137905474462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9951666001583676</v>
+        <v>0.9999187626792185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9948077042178911</v>
+        <v>0.9997137705125024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.995072390758817</v>
+        <v>0.9998171626964467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005504806876510315</v>
+        <v>0.0001171420537947686</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006288061795956751</v>
+        <v>0.0008047273980135412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002461102167442255</v>
+        <v>3.019385319466338e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001373275526588678</v>
+        <v>0.0002078607470460775</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001917188847015467</v>
+        <v>0.0001190273001203704</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008702935816332196</v>
+        <v>0.001200702843111167</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07419438574791434</v>
+        <v>0.01082321827345123</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9528221468875264</v>
+        <v>0.9989960573129633</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07735299435275469</v>
+        <v>0.01128398508250253</v>
       </c>
       <c r="P2" t="n">
-        <v>52.40426718178476</v>
+        <v>60.10424644926869</v>
       </c>
       <c r="Q2" t="n">
-        <v>78.00065950401697</v>
+        <v>85.70063877150089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_23</t>
+          <t>model_1_7_13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9939805591153466</v>
+        <v>0.9998765370592868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9931476061309411</v>
+        <v>0.9991369428914288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9950160200575623</v>
+        <v>0.9999212062071091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9947525376695258</v>
+        <v>0.9997144250741834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9949551062013625</v>
+        <v>0.9998182253228804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00561888384290656</v>
+        <v>0.0001152472357589638</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006396408891438731</v>
+        <v>0.0008056259270225163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002537775528763128</v>
+        <v>2.928565580836051e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001387866157387794</v>
+        <v>0.0002073854023107326</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001962820843075462</v>
+        <v>0.0001183355290595465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008793942608642238</v>
+        <v>0.001190608035846584</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07495921452967981</v>
+        <v>0.01073532653247975</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9518444729227724</v>
+        <v>0.9990122964742945</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07815038347917375</v>
+        <v>0.01119235160815692</v>
       </c>
       <c r="P3" t="n">
-        <v>52.36324447853208</v>
+        <v>60.13686172222599</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.95963680076429</v>
+        <v>85.73325404445819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_22</t>
+          <t>model_1_7_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9938557231807105</v>
+        <v>0.9998841818249029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9930289906079338</v>
+        <v>0.9991335278962807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9948615500053967</v>
+        <v>0.9999292578346068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.994695636795317</v>
+        <v>0.9997219201965327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9948346867245738</v>
+        <v>0.9998247042413452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005735412708225115</v>
+        <v>0.0001081111826227872</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006507131275546327</v>
+        <v>0.0008088136750923299</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002616429600978547</v>
+        <v>2.629306993395786e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001402915488410404</v>
+        <v>0.0002019424210709136</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002009672544694475</v>
+        <v>0.0001141177455024357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008885897850567809</v>
+        <v>0.001153155079146155</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07573250760555282</v>
+        <v>0.0103976527458262</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9508457854456838</v>
+        <v>0.9990734545992233</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07895659724222402</v>
+        <v>0.01084030234932443</v>
       </c>
       <c r="P4" t="n">
-        <v>52.32219113583353</v>
+        <v>60.26470078330016</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.91858345806574</v>
+        <v>85.86109310553236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_21</t>
+          <t>model_1_7_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937282299712021</v>
+        <v>0.9998884849647984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.992907709379008</v>
+        <v>0.9991333393489004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9947027996668016</v>
+        <v>0.9999343594129018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9946380556298253</v>
+        <v>0.9997286528247629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9947112351647147</v>
+        <v>0.9998299157395782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005854422022996094</v>
+        <v>0.0001040943904163828</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006620341979117955</v>
+        <v>0.0008089896757956505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002697263137453841</v>
+        <v>2.439694257997446e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001418144745116975</v>
+        <v>0.00019705316543989</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002057703941285408</v>
+        <v>0.0001107250540099322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008978810627244508</v>
+        <v>0.001131382491814694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07651419491176846</v>
+        <v>0.0102026658485115</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9498258397696171</v>
+        <v>0.9991078797183874</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07977156259538105</v>
+        <v>0.01063701445611251</v>
       </c>
       <c r="P5" t="n">
-        <v>52.28111600384214</v>
+        <v>60.34042494057071</v>
       </c>
       <c r="Q5" t="n">
-        <v>77.87750832607433</v>
+        <v>85.93681726280292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_20</t>
+          <t>model_1_7_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9935980682366615</v>
+        <v>0.9998901063585357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9927837804268432</v>
+        <v>0.9991328609598431</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9945400030796309</v>
+        <v>0.9999359721053027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9945791361573447</v>
+        <v>0.9997310349550074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9945846810137438</v>
+        <v>0.9998317047588502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005975922288749938</v>
+        <v>0.0001025808905335333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006736024216111412</v>
+        <v>0.0008094362309817287</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0027801569692629</v>
+        <v>2.379754568785265e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001433727961673328</v>
+        <v>0.0001953232550225666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002106942465468114</v>
+        <v>0.0001095604003552097</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009072650427279037</v>
+        <v>0.001123200503992503</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07730408972848679</v>
+        <v>0.01012822247650264</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9487845458932922</v>
+        <v>0.9991208508682856</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08059508486975478</v>
+        <v>0.01055940187563821</v>
       </c>
       <c r="P6" t="n">
-        <v>52.24003367025349</v>
+        <v>60.36971778936899</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.8364259924857</v>
+        <v>85.9661101116012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_19</t>
+          <t>model_1_7_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9934652241228317</v>
+        <v>0.9998947206912372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9926571739084346</v>
+        <v>0.9991286448932476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9943729160766898</v>
+        <v>0.999939733388167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9945204478995273</v>
+        <v>0.9997358351764721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9944553979640844</v>
+        <v>0.9998354558344853</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006099926437827387</v>
+        <v>9.827361350257073e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00685420584366212</v>
+        <v>0.0008133717440846527</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002865235423055958</v>
+        <v>2.239957217594877e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001449250025812366</v>
+        <v>0.0001918373192149684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002157242724434162</v>
+        <v>0.0001071184456954586</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009167413779363462</v>
+        <v>0.001099632043625466</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07810202582409362</v>
+        <v>0.009913304872875176</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9477217929826534</v>
+        <v>0.9991577655298975</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08142699075690701</v>
+        <v>0.01033533478468356</v>
       </c>
       <c r="P7" t="n">
-        <v>52.19895713449629</v>
+        <v>60.45550999019817</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.7953494567285</v>
+        <v>86.05190231243037</v>
       </c>
     </row>
     <row r="8">
@@ -852,657 +852,657 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.993329471947073</v>
+        <v>0.9998965326236271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9925277037516639</v>
+        <v>0.9991278136756991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9942015514083283</v>
+        <v>0.9999412934345602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9944587211959127</v>
+        <v>0.9997380748146311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9943222830310176</v>
+        <v>0.9998371503490252</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006226645135066337</v>
+        <v>9.658225415118179e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006975060551924489</v>
+        <v>0.0008141476491799367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002952492006526373</v>
+        <v>2.181974247062849e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001465575708124794</v>
+        <v>0.0001902108869947779</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002209033857325583</v>
+        <v>0.0001060153147327032</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009263196048887059</v>
+        <v>0.001089424660605892</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07890909412144038</v>
+        <v>0.009827627086493554</v>
       </c>
       <c r="N8" t="n">
-        <v>0.946635775576584</v>
+        <v>0.9991722609890168</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08226841762253352</v>
+        <v>0.0102460095175582</v>
       </c>
       <c r="P8" t="n">
-        <v>52.15783518564264</v>
+        <v>60.49023107612128</v>
       </c>
       <c r="Q8" t="n">
-        <v>77.75422750787484</v>
+        <v>86.08662339835348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_17</t>
+          <t>model_1_7_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9931909190956068</v>
+        <v>0.9998975889600809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9923954137754885</v>
+        <v>0.9991255403649106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9940255885843221</v>
+        <v>0.9999429607978911</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9943962928921821</v>
+        <v>0.9997348343702254</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9941859207705597</v>
+        <v>0.999835818935039</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006355978140142798</v>
+        <v>9.559621043946754e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007098547437825364</v>
+        <v>0.0008162696850141784</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00304208990898436</v>
+        <v>2.120002577939916e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001482086951951688</v>
+        <v>0.0001925641078345655</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002262088430468024</v>
+        <v>0.0001068820668069824</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009359898643968507</v>
+        <v>0.001083337235580024</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07972438861567267</v>
+        <v>0.009777331457993411</v>
       </c>
       <c r="N9" t="n">
-        <v>0.945527352764854</v>
+        <v>0.9991807116806468</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08311842089127755</v>
+        <v>0.0101935727000265</v>
       </c>
       <c r="P9" t="n">
-        <v>52.11671893912219</v>
+        <v>60.51075475689424</v>
       </c>
       <c r="Q9" t="n">
-        <v>77.7131112613544</v>
+        <v>86.10714707912643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_16</t>
+          <t>model_1_7_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9930493607607924</v>
+        <v>0.9999012586512622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9922601409328589</v>
+        <v>0.9991245481942576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9938450501399978</v>
+        <v>0.9999454059114259</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9943323556750997</v>
+        <v>0.9997456569357533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9940460515305003</v>
+        <v>0.9998425533065558</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006488116631999171</v>
+        <v>9.217071480246057e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007224818698628534</v>
+        <v>0.0008171958327676006</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003134017655744769</v>
+        <v>2.029123904931092e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001498997278162294</v>
+        <v>0.0001847047269745385</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002316507466953531</v>
+        <v>0.0001024979830119247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00945766383145605</v>
+        <v>0.001064503134678755</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08054884624871526</v>
+        <v>0.009600558046408582</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9443948860863394</v>
+        <v>0.9992100692100978</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08397797739262133</v>
+        <v>0.0100092736783391</v>
       </c>
       <c r="P10" t="n">
-        <v>52.07556597151719</v>
+        <v>60.58373620945437</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.6719582937494</v>
+        <v>86.18012853168658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_15</t>
+          <t>model_1_7_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.992904878430113</v>
+        <v>0.999899146684357</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9921219278521183</v>
+        <v>0.999123591699519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9936601599624584</v>
+        <v>0.9999432257033855</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9942675811637982</v>
+        <v>0.9997385349519927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9939030500914052</v>
+        <v>0.9998379585876059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00662298454564713</v>
+        <v>9.414214320388769e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007353834542646875</v>
+        <v>0.0008180886786207475</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003228161246507026</v>
+        <v>2.110156712114041e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001516129054711612</v>
+        <v>0.0001898767338068454</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002372145150609319</v>
+        <v>0.0001054891504639929</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009556382851926925</v>
+        <v>0.001076328071000357</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08138172120106044</v>
+        <v>0.009702687421734645</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9432390274409039</v>
+        <v>0.9991931734748558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08484630955597669</v>
+        <v>0.01011575091260975</v>
       </c>
       <c r="P11" t="n">
-        <v>52.03441834583792</v>
+        <v>60.54140951223215</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.63081066807013</v>
+        <v>86.13780183446436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_14</t>
+          <t>model_1_7_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9927573584907594</v>
+        <v>0.9999043834550025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9919806646668501</v>
+        <v>0.9991232598009095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9934706467352736</v>
+        <v>0.9999475666826859</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9942015990158113</v>
+        <v>0.9997503119694067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9937566130379623</v>
+        <v>0.9998457665141627</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006760687933656779</v>
+        <v>8.925384767390147e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007485697525357513</v>
+        <v>0.0008183984914040382</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003324658831946957</v>
+        <v>1.948813513619026e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001533580230997515</v>
+        <v>0.00018132422700869</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002429119531472236</v>
+        <v>0.0001004061810724401</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009656105471125444</v>
+        <v>0.001048240628684865</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08222340259109191</v>
+        <v>0.009447425452148404</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9420588679260753</v>
+        <v>0.9992350676400203</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08572382306530246</v>
+        <v>0.009849621912513096</v>
       </c>
       <c r="P12" t="n">
-        <v>51.99326125754232</v>
+        <v>60.64805205408322</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.58965357977453</v>
+        <v>86.24444437631543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_13</t>
+          <t>model_1_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9926067352831383</v>
+        <v>0.999920469155051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.991836290557632</v>
+        <v>0.9991208652273926</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9932761124464615</v>
+        <v>0.9999598819346041</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9941351074448095</v>
+        <v>0.9997710988779924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.993606717242645</v>
+        <v>0.9998608761526234</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006901288086376455</v>
+        <v>7.423855275932215e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007620464419021665</v>
+        <v>0.0008206337206723874</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003423713074410745</v>
+        <v>1.491086812521989e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001551166141163852</v>
+        <v>0.0001662287091248274</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002487439607787299</v>
+        <v>9.056978862502366e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009756823810469644</v>
+        <v>0.0009539963885138203</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08307399163623026</v>
+        <v>0.008616179707928691</v>
       </c>
       <c r="N13" t="n">
-        <v>0.940853882265106</v>
+        <v>0.9993637532404076</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08661062344705441</v>
+        <v>0.008982988316046043</v>
       </c>
       <c r="P13" t="n">
-        <v>51.95209441123264</v>
+        <v>61.0164539275175</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.54848673346484</v>
+        <v>86.61284624974971</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_12</t>
+          <t>model_1_7_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9924528513598524</v>
+        <v>0.999921305124127</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9916886959187576</v>
+        <v>0.9991189677346348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9930766498316134</v>
+        <v>0.9999596715766413</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9940665057133108</v>
+        <v>0.9997725867597621</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9934528793119149</v>
+        <v>0.9998616459819984</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007044931974040198</v>
+        <v>7.345821232163121e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007758237535754976</v>
+        <v>0.0008224049468715576</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003525276754182908</v>
+        <v>1.498905284850094e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001569310153543388</v>
+        <v>0.0001651482047405486</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002547293453863148</v>
+        <v>9.006862879452475e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009858634568766228</v>
+        <v>0.0009500771010703318</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08393409303757442</v>
+        <v>0.008570776646350739</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9396228108788192</v>
+        <v>0.9993704409930162</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08750734114570914</v>
+        <v>0.008935652352139422</v>
       </c>
       <c r="P14" t="n">
-        <v>51.91089357919719</v>
+        <v>61.03758770653459</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.5072859014294</v>
+        <v>86.6339800287668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_11</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9922958199514481</v>
+        <v>0.9998329023273522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9915378472273459</v>
+        <v>0.9990896118772029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9928722590094016</v>
+        <v>0.9998156741219058</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99399803295474</v>
+        <v>0.9996933149568621</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9932958603846599</v>
+        <v>0.999776325372275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00719151390090344</v>
+        <v>0.0001559783426766127</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007899048167695467</v>
+        <v>0.0008498073512110176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003629349810837126</v>
+        <v>6.850925719385809e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001587420054737247</v>
+        <v>0.0002227156353869876</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002608384932787186</v>
+        <v>0.0001456124462904229</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009961430355074755</v>
+        <v>0.001411095633630009</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08480279418099053</v>
+        <v>0.01248912897990139</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9383665596115849</v>
+        <v>0.9986632186188178</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08841302469525975</v>
+        <v>0.01302081705663685</v>
       </c>
       <c r="P15" t="n">
-        <v>51.86970714591839</v>
+        <v>59.53158677869689</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.46609946815059</v>
+        <v>85.1279791009291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_10</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9921354069753533</v>
+        <v>0.9998084493216635</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9913836664313237</v>
+        <v>0.9990881545707777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.992662447830814</v>
+        <v>0.9997703967831246</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9939273461508811</v>
+        <v>0.9996804177883191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9931345420463693</v>
+        <v>0.9997562068193573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007341252372772025</v>
+        <v>0.0001788041501241074</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008042969173027499</v>
+        <v>0.0008511676827906078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003736182840028648</v>
+        <v>8.533769647587503e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001606115533936783</v>
+        <v>0.0002320815994305892</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002671149186982716</v>
+        <v>0.0001587096479532321</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01006530259946982</v>
+        <v>0.00150244671724383</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08568110861077852</v>
+        <v>0.01337176690359608</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9370832558028264</v>
+        <v>0.9984675945733077</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08932873078868533</v>
+        <v>0.0139410307040556</v>
       </c>
       <c r="P16" t="n">
-        <v>51.82849165583339</v>
+        <v>59.25843896901858</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42488397806559</v>
+        <v>84.85483129125079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9919716395200482</v>
+        <v>0.9998362282239458</v>
       </c>
       <c r="C17" t="n">
-        <v>0.991226063619163</v>
+        <v>0.9990870019898802</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9924477966208644</v>
+        <v>0.9998219365119133</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9938557954916897</v>
+        <v>0.999693862143773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9929697629572465</v>
+        <v>0.9997784182567264</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007494122103738863</v>
+        <v>0.0001528737641964244</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008190084480215647</v>
+        <v>0.0008522435664659424</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003845480348068614</v>
+        <v>6.61816855467607e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001625039488445953</v>
+        <v>0.0002223182665446761</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002735259918257284</v>
+        <v>0.0001442499760457184</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0101702145721118</v>
+        <v>0.001397557405441584</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08656859767686469</v>
+        <v>0.01236421304395975</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9357731161603855</v>
+        <v>0.9986898257915664</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09025400210167042</v>
+        <v>0.01289058319069054</v>
       </c>
       <c r="P17" t="n">
-        <v>51.78727257042007</v>
+        <v>59.57179609548307</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.38366489265228</v>
+        <v>85.16818841771527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9918044111402131</v>
+        <v>0.9998375357453176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9910649690667206</v>
+        <v>0.9990859420648809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9922273359519329</v>
+        <v>0.9998225037463465</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9937825780033641</v>
+        <v>0.9996933935058047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9928006158368295</v>
+        <v>0.999778318794777</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007650222455837441</v>
+        <v>0.0001516532503894503</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00834045917368696</v>
+        <v>0.0008532329599275057</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00395773595445764</v>
+        <v>6.597085888436022e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00164440429142623</v>
+        <v>0.0002226585928997685</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002801070122941935</v>
+        <v>0.0001443147258920644</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0102762008442046</v>
+        <v>0.001393497299203108</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08746555010881393</v>
+        <v>0.01231475742308594</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9344352891217049</v>
+        <v>0.9987002859625411</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09118913965559525</v>
+        <v>0.01283902214164889</v>
       </c>
       <c r="P18" t="n">
-        <v>51.74604110474409</v>
+        <v>59.58782778112963</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.3424334269763</v>
+        <v>85.18422010336184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9916336664069911</v>
+        <v>0.9998249670174998</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9909003519679961</v>
+        <v>0.999085657452617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9920014906039279</v>
+        <v>0.9997993212167782</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9937074830236036</v>
+        <v>0.9996929539625666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9926273070428756</v>
+        <v>0.9997714558606926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007809605169472611</v>
+        <v>0.0001633856061040131</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008494122009490832</v>
+        <v>0.0008534986329827661</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004072733366981644</v>
+        <v>7.458721756946353e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001664265659538212</v>
+        <v>0.0002229777905708817</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002868499513259929</v>
+        <v>0.0001487825040701726</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01038325197497578</v>
+        <v>0.001445460209813361</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08837197049671695</v>
+        <v>0.01278223791454427</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9330693312559291</v>
+        <v>0.9985997361399983</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09213414823596017</v>
+        <v>0.01332640424544662</v>
       </c>
       <c r="P19" t="n">
-        <v>51.70480174178681</v>
+        <v>59.43879493871448</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.30119406401901</v>
+        <v>85.03518726094669</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9914592969660014</v>
+        <v>0.9998015373215218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9907320157003643</v>
+        <v>0.9990415901768083</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9917704180814391</v>
+        <v>0.9997143592701003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.993630724595015</v>
+        <v>0.9997135884496259</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9924500123916042</v>
+        <v>0.9997587113573888</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007972371388702569</v>
+        <v>0.000185256198854698</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008651256526216976</v>
+        <v>0.0008946335006203635</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004190392386422871</v>
+        <v>0.0001061654198100755</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001684566982086787</v>
+        <v>0.0002079929616752357</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002937479684254829</v>
+        <v>0.0001570791907426556</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01049143663205679</v>
+        <v>0.001551968721145576</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08928813688672516</v>
+        <v>0.0136108853075286</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9316743757280115</v>
+        <v>0.9984122985721742</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0930893177259169</v>
+        <v>0.01419032887348687</v>
       </c>
       <c r="P20" t="n">
-        <v>51.6635465821513</v>
+        <v>59.18754166448858</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.2599389043835</v>
+        <v>84.78393398672078</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9912812253453882</v>
+        <v>0.999797871792158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9905599445498273</v>
+        <v>0.9990408164553015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9915328357363539</v>
+        <v>0.9997081092963984</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9935541146131072</v>
+        <v>0.9997100196153837</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9922685084133304</v>
+        <v>0.9997549366673072</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008138593430104283</v>
+        <v>0.0001886778096176323</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008811877392192609</v>
+        <v>0.0008953557356844438</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004311366119942419</v>
+        <v>0.0001084883766310556</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00170482904296722</v>
+        <v>0.0002105846602389315</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00300809758145482</v>
+        <v>0.0001595365184349936</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01060072498791908</v>
+        <v>0.001565719406614436</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09021415315849439</v>
+        <v>0.0137360041357606</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9302498027631056</v>
+        <v>0.9983829743372636</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09405475642749329</v>
+        <v>0.01432077426926839</v>
       </c>
       <c r="P21" t="n">
-        <v>51.62227582236669</v>
+        <v>59.15093941719142</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.21866814459889</v>
+        <v>84.74733173942363</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9910993684056967</v>
+        <v>0.9997943582691865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9903839965253455</v>
+        <v>0.9990402543098343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9912895804535067</v>
+        <v>0.9997022096048219</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9934759873257919</v>
+        <v>0.9997063834386674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9920827765598705</v>
+        <v>0.999751224409273</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008308348900709301</v>
+        <v>0.0001919575290857128</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008976117149820715</v>
+        <v>0.0008958804738027836</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004435228437042785</v>
+        <v>0.000110681142463832</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001725492405790004</v>
+        <v>0.0002132252631177191</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003080360421416395</v>
+        <v>0.0001619532027907755</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01071117085245142</v>
+        <v>0.001578554554344776</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09115014482001277</v>
+        <v>0.01385487383867904</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9287949472455734</v>
+        <v>0.998354866153492</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09503059519181235</v>
+        <v>0.01444470450153427</v>
       </c>
       <c r="P22" t="n">
-        <v>51.58098875619573</v>
+        <v>59.11647282616799</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.17738107842794</v>
+        <v>84.7128651484002</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9909136947156492</v>
+        <v>0.9997903599841333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9902041738755705</v>
+        <v>0.9990387414725699</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9910400298012076</v>
+        <v>0.9996929392874948</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9933956169702693</v>
+        <v>0.9997045158199623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9918921628551507</v>
+        <v>0.9997475363878949</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008481667140235554</v>
+        <v>0.0001956897526783551</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009143973700083656</v>
+        <v>0.0008972926409832808</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004562296271565756</v>
+        <v>0.000114126684460414</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001746749022695893</v>
+        <v>0.0002145815336494522</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003154522647130824</v>
+        <v>0.0001643541090549331</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01082272282604138</v>
+        <v>0.001593874418073652</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09209596701395537</v>
+        <v>0.01398891535031773</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9273095577251933</v>
+        <v>0.9983228798730668</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09601668299467293</v>
+        <v>0.01458445243782761</v>
       </c>
       <c r="P23" t="n">
-        <v>51.53969650355008</v>
+        <v>59.07796009466604</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.13608882578228</v>
+        <v>84.67435241689824</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9907240225918194</v>
+        <v>0.9997213240743181</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9900202973981228</v>
+        <v>0.9989612610343531</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9907841081619896</v>
+        <v>0.9995119177283932</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9933131261641556</v>
+        <v>0.9996703098307566</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9916966594945694</v>
+        <v>0.9996767825822994</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008658717742186753</v>
+        <v>0.0002601317441646681</v>
       </c>
       <c r="H24" t="n">
-        <v>0.009315614320536568</v>
+        <v>0.0009696172290603983</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004692608126908169</v>
+        <v>0.0001814078100318456</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001768566463373076</v>
+        <v>0.0002394220297560453</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003230587295140622</v>
+        <v>0.0002104149198939455</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01093546892877753</v>
+        <v>0.001853735736927087</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09305223125850746</v>
+        <v>0.01612860019234987</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9257921807345548</v>
+        <v>0.997770592594545</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0970136573878555</v>
+        <v>0.01681522809334328</v>
       </c>
       <c r="P24" t="n">
-        <v>51.49837726818567</v>
+        <v>58.50864469391283</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.09476959041788</v>
+        <v>84.10503701614503</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9905304044490134</v>
+        <v>0.9996577675565728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9898323950293348</v>
+        <v>0.9989162042181081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9905220092437572</v>
+        <v>0.9993553449234756</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9932289179787571</v>
+        <v>0.9996639671619415</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9914965302335804</v>
+        <v>0.9996285490220294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008839451779641806</v>
+        <v>0.000319458963671282</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009491012933839327</v>
+        <v>0.001011675789259513</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004826065369611252</v>
+        <v>0.0002396019533207435</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001790838122192028</v>
+        <v>0.0002440280956428663</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00330845174590164</v>
+        <v>0.0002418150244818049</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01104934721888393</v>
+        <v>0.002084571667355834</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09401835873722646</v>
+        <v>0.01787341499745592</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9242432355921073</v>
+        <v>0.9972621404525821</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09802091491350315</v>
+        <v>0.01863432327696726</v>
       </c>
       <c r="P25" t="n">
-        <v>51.45706084026655</v>
+        <v>58.09776346321844</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.05345316249876</v>
+        <v>83.69415578545065</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9903326877656825</v>
+        <v>0.9995099651992233</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9896403365911093</v>
+        <v>0.9987398201774664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9902532925493096</v>
+        <v>0.9989570462958262</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9931419429349799</v>
+        <v>0.9996133252616255</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9912911301189402</v>
+        <v>0.9994866031875097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009024011624771872</v>
+        <v>0.0004574259764832526</v>
       </c>
       <c r="H26" t="n">
-        <v>0.009670291055531825</v>
+        <v>0.001176322548833937</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004962892294923072</v>
+        <v>0.0003876394584378725</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00181384156884749</v>
+        <v>0.0002808044016885957</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003388366931885281</v>
+        <v>0.0003342219300632342</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01116438633073935</v>
+        <v>0.002538174376849153</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0949947978826834</v>
+        <v>0.02138751917552039</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9226615021254601</v>
+        <v>0.9960797215937864</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09903892309488989</v>
+        <v>0.02229803014509043</v>
       </c>
       <c r="P26" t="n">
-        <v>51.41573259204232</v>
+        <v>57.37979097275269</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.01212491427452</v>
+        <v>82.97618329498489</v>
       </c>
     </row>
   </sheetData>
